--- a/dados_atividades_comunitarias/atividades_comunitarias.xlsx
+++ b/dados_atividades_comunitarias/atividades_comunitarias.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Documents\GitHub\trabalho\anuario2020\dados_atividades_comunitarias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_atividades_comunitarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Evolução_Assistência - TAB 98" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Atendimento_População - TAB 103" sheetId="5" r:id="rId7"/>
     <sheet name="FM" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="146">
-  <si>
-    <t>Indicadores</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="148">
   <si>
     <t>Bolsa-Alimentação: Nro. refeições subsidiadas para estudantes carentes (RU)</t>
   </si>
@@ -246,9 +243,6 @@
     <t>Café  R$ 5,80  / Almoço e jantar R$ 13,00</t>
   </si>
   <si>
-    <t>Meses</t>
-  </si>
-  <si>
     <t>Desjejum</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>Dezembro</t>
   </si>
   <si>
-    <t>Atendimentos</t>
-  </si>
-  <si>
     <t>Nº de pessoas</t>
   </si>
   <si>
@@ -442,12 +433,6 @@
   </si>
   <si>
     <t>ND</t>
-  </si>
-  <si>
-    <t>Atividade</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">Atendimentos Psicopedagógicos </t>
@@ -487,15 +472,36 @@
       <t>campi*</t>
     </r>
   </si>
+  <si>
+    <t>Unidade / Atividade</t>
+  </si>
+  <si>
+    <t>Unidade / Indicadores</t>
+  </si>
+  <si>
+    <t>Unidade / Descrição</t>
+  </si>
+  <si>
+    <t>Unidade / Meses</t>
+  </si>
+  <si>
+    <t>Unidades / Meses</t>
+  </si>
+  <si>
+    <t>Unidade / Atendimentos</t>
+  </si>
+  <si>
+    <t>Atendimentos *</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -611,9 +617,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -629,7 +635,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,13 +677,13 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -702,6 +708,12 @@
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,7 +1033,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1031,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" s="5">
         <v>2015</v>
@@ -1051,7 +1063,7 @@
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>487006</v>
@@ -1071,7 +1083,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>4816</v>
@@ -1091,7 +1103,7 @@
     </row>
     <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8">
         <v>2432</v>
@@ -1111,7 +1123,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9">
         <v>333</v>
@@ -1131,7 +1143,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9">
         <v>365</v>
@@ -1151,7 +1163,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>1197</v>
@@ -1171,7 +1183,7 @@
     </row>
     <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9">
         <v>72</v>
@@ -1191,7 +1203,7 @@
     </row>
     <row r="9" spans="1:6" ht="25.5">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9">
         <v>34</v>
@@ -1220,7 +1232,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D38"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1231,24 +1243,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39">
       <c r="A1" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24">
       <c r="A2" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="13">
         <v>8</v>
@@ -1259,10 +1271,10 @@
     </row>
     <row r="3" spans="1:4" ht="24">
       <c r="A3" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="13">
         <v>109</v>
@@ -1273,10 +1285,10 @@
     </row>
     <row r="4" spans="1:4" ht="24">
       <c r="A4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C4" s="13">
         <v>79</v>
@@ -1287,10 +1299,10 @@
     </row>
     <row r="5" spans="1:4" ht="24.75">
       <c r="A5" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="13">
         <v>7</v>
@@ -1301,10 +1313,10 @@
     </row>
     <row r="6" spans="1:4" ht="24">
       <c r="A6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="13">
         <v>8</v>
@@ -1315,10 +1327,10 @@
     </row>
     <row r="7" spans="1:4" ht="24">
       <c r="A7" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="13">
         <v>17</v>
@@ -1329,10 +1341,10 @@
     </row>
     <row r="8" spans="1:4" ht="24">
       <c r="A8" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="13">
         <v>35</v>
@@ -1343,10 +1355,10 @@
     </row>
     <row r="9" spans="1:4" ht="24">
       <c r="A9" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="13">
         <v>74</v>
@@ -1357,10 +1369,10 @@
     </row>
     <row r="10" spans="1:4" ht="24">
       <c r="A10" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="13">
         <v>173</v>
@@ -1371,10 +1383,10 @@
     </row>
     <row r="11" spans="1:4" ht="24">
       <c r="A11" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="13">
         <v>56</v>
@@ -1385,10 +1397,10 @@
     </row>
     <row r="12" spans="1:4" ht="24">
       <c r="A12" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="13">
         <v>6</v>
@@ -1399,10 +1411,10 @@
     </row>
     <row r="13" spans="1:4" ht="24">
       <c r="A13" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="13">
         <v>7</v>
@@ -1413,10 +1425,10 @@
     </row>
     <row r="14" spans="1:4" ht="24">
       <c r="A14" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="13">
         <v>85</v>
@@ -1427,10 +1439,10 @@
     </row>
     <row r="15" spans="1:4" ht="24">
       <c r="A15" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="13">
         <v>17</v>
@@ -1441,10 +1453,10 @@
     </row>
     <row r="16" spans="1:4" ht="24">
       <c r="A16" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" s="13">
         <v>108</v>
@@ -1455,10 +1467,10 @@
     </row>
     <row r="17" spans="1:4" ht="24">
       <c r="A17" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" s="13">
         <v>12</v>
@@ -1469,10 +1481,10 @@
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="13">
         <v>8079</v>
@@ -1483,10 +1495,10 @@
     </row>
     <row r="19" spans="1:4" ht="24">
       <c r="A19" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="13">
         <v>640</v>
@@ -1497,10 +1509,10 @@
     </row>
     <row r="20" spans="1:4" ht="24">
       <c r="A20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="C20" s="13">
         <v>59</v>
@@ -1511,10 +1523,10 @@
     </row>
     <row r="21" spans="1:4" ht="24">
       <c r="A21" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C21" s="13">
         <v>114</v>
@@ -1525,10 +1537,10 @@
     </row>
     <row r="22" spans="1:4" ht="24">
       <c r="A22" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="13">
         <v>192</v>
@@ -1539,10 +1551,10 @@
     </row>
     <row r="23" spans="1:4" ht="24">
       <c r="A23" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="13">
         <v>30</v>
@@ -1553,10 +1565,10 @@
     </row>
     <row r="24" spans="1:4" ht="24">
       <c r="A24" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="13">
         <v>10</v>
@@ -1567,10 +1579,10 @@
     </row>
     <row r="25" spans="1:4" ht="24">
       <c r="A25" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -1581,10 +1593,10 @@
     </row>
     <row r="26" spans="1:4" ht="24">
       <c r="A26" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" s="13">
         <v>272</v>
@@ -1595,10 +1607,10 @@
     </row>
     <row r="27" spans="1:4" ht="24.75">
       <c r="A27" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C27" s="13">
         <v>7454</v>
@@ -1609,10 +1621,10 @@
     </row>
     <row r="28" spans="1:4" ht="17.25" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28" s="13">
         <v>49</v>
@@ -1623,10 +1635,10 @@
     </row>
     <row r="29" spans="1:4" ht="36.75">
       <c r="A29" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C29" s="13">
         <v>33</v>
@@ -1637,10 +1649,10 @@
     </row>
     <row r="30" spans="1:4" ht="24">
       <c r="A30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="C30" s="13">
         <v>659</v>
@@ -1651,10 +1663,10 @@
     </row>
     <row r="31" spans="1:4" ht="24">
       <c r="A31" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" s="13">
         <v>269</v>
@@ -1665,10 +1677,10 @@
     </row>
     <row r="32" spans="1:4" ht="24.75">
       <c r="A32" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="13">
         <v>22</v>
@@ -1679,10 +1691,10 @@
     </row>
     <row r="33" spans="1:4" ht="24.75">
       <c r="A33" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" s="13">
         <v>54</v>
@@ -1693,10 +1705,10 @@
     </row>
     <row r="34" spans="1:4" ht="24">
       <c r="A34" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="13">
         <v>194</v>
@@ -1707,10 +1719,10 @@
     </row>
     <row r="35" spans="1:4" ht="24">
       <c r="A35" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C35" s="13">
         <v>153</v>
@@ -1721,10 +1733,10 @@
     </row>
     <row r="36" spans="1:4" ht="24.75">
       <c r="A36" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C36" s="13">
         <v>17</v>
@@ -1735,10 +1747,10 @@
     </row>
     <row r="37" spans="1:4" ht="24.75">
       <c r="A37" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C37" s="13">
         <v>1013</v>
@@ -1749,10 +1761,10 @@
     </row>
     <row r="38" spans="1:4" ht="24">
       <c r="A38" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C38" s="13">
         <v>44</v>
@@ -1770,18 +1782,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="A1" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="11">
         <v>2015</v>
@@ -1802,10 +1812,10 @@
     </row>
     <row r="2" spans="1:8" ht="48.75">
       <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="13">
         <v>991</v>
@@ -1826,10 +1836,10 @@
     </row>
     <row r="3" spans="1:8" ht="48.75">
       <c r="A3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="13">
         <v>1176</v>
@@ -1850,10 +1860,10 @@
     </row>
     <row r="4" spans="1:8" ht="72.75">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13">
         <v>284</v>
@@ -1870,10 +1880,10 @@
     </row>
     <row r="5" spans="1:8" ht="36.75">
       <c r="A5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="16">
         <v>1601</v>
@@ -1894,10 +1904,10 @@
     </row>
     <row r="6" spans="1:8" ht="36">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1910,10 +1920,10 @@
     </row>
     <row r="7" spans="1:8" ht="60.75">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="13">
         <v>471</v>
@@ -1934,10 +1944,10 @@
     </row>
     <row r="8" spans="1:8" ht="48.75">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="16">
         <v>17359</v>
@@ -1958,10 +1968,10 @@
     </row>
     <row r="9" spans="1:8" ht="48.75">
       <c r="A9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="16">
         <v>6128</v>
@@ -1982,10 +1992,10 @@
     </row>
     <row r="10" spans="1:8" ht="36">
       <c r="A10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="16">
         <v>25000</v>
@@ -2006,10 +2016,10 @@
     </row>
     <row r="11" spans="1:8" ht="36">
       <c r="A11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="16">
@@ -2024,10 +2034,10 @@
     </row>
     <row r="12" spans="1:8" ht="36.75">
       <c r="A12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2042,10 +2052,10 @@
     </row>
     <row r="13" spans="1:8" ht="60.75">
       <c r="A13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2060,10 +2070,10 @@
     </row>
     <row r="14" spans="1:8" ht="36">
       <c r="A14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2078,10 +2088,10 @@
     </row>
     <row r="15" spans="1:8" ht="36">
       <c r="A15" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -2100,10 +2110,10 @@
     </row>
     <row r="16" spans="1:8" ht="36">
       <c r="A16" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2118,10 +2128,10 @@
     </row>
     <row r="17" spans="1:8" ht="36">
       <c r="A17" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="13">
         <v>400</v>
@@ -2134,10 +2144,10 @@
     </row>
     <row r="18" spans="1:8" ht="36.75">
       <c r="A18" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -2150,10 +2160,10 @@
     </row>
     <row r="19" spans="1:8" ht="60">
       <c r="A19" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2166,10 +2176,10 @@
     </row>
     <row r="20" spans="1:8" ht="36">
       <c r="A20" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -2182,10 +2192,10 @@
     </row>
     <row r="21" spans="1:8" ht="36">
       <c r="A21" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -2198,10 +2208,10 @@
     </row>
     <row r="22" spans="1:8" ht="60">
       <c r="A22" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2214,42 +2224,42 @@
     </row>
     <row r="23" spans="1:8" ht="48.75">
       <c r="A23" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="60.75">
       <c r="A24" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="60.75">
       <c r="A25" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -2258,32 +2268,32 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="72.75">
       <c r="A26" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="60.75">
       <c r="A27" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="13">
         <v>401</v>
@@ -2294,16 +2304,16 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="36.75">
       <c r="A28" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="13">
         <v>52</v>
@@ -2314,16 +2324,16 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="60.75">
       <c r="A29" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="13">
         <v>30</v>
@@ -2336,16 +2346,16 @@
         <v>25</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="60.75">
       <c r="A30" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="16">
@@ -2354,16 +2364,16 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="36.75">
       <c r="A31" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="13">
         <v>304</v>
@@ -2376,32 +2386,32 @@
         <v>326</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="36.75">
       <c r="A32" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="36.75">
       <c r="A33" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="13">
         <v>4</v>
@@ -2412,16 +2422,16 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="60.75">
       <c r="A34" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13">
         <v>317</v>
@@ -2434,16 +2444,16 @@
         <v>178</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="60.75">
       <c r="A35" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="16">
         <v>6014</v>
@@ -2456,16 +2466,16 @@
         <v>513</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="36">
       <c r="A36" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -2474,16 +2484,16 @@
         <v>150</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="36">
       <c r="A37" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -2492,32 +2502,32 @@
         <v>90</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="36">
       <c r="A38" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="36">
       <c r="A39" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -2526,32 +2536,32 @@
         <v>671</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="36">
       <c r="A40" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="36">
       <c r="A41" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="13">
         <v>100</v>
@@ -2562,16 +2572,16 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="60.75">
       <c r="A42" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="13">
         <v>403</v>
@@ -2584,16 +2594,16 @@
         <v>500</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="36.75">
       <c r="A43" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="13">
         <v>200</v>
@@ -2602,16 +2612,16 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="36">
       <c r="A44" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="13">
         <v>225</v>
@@ -2624,7 +2634,7 @@
         <v>37</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -2648,7 +2658,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2659,154 +2669,158 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="19">
+        <v>51</v>
+      </c>
+      <c r="B2" s="33">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="19">
+        <v>52</v>
+      </c>
+      <c r="B3" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="19">
+        <v>53</v>
+      </c>
+      <c r="B4" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="19">
+        <v>54</v>
+      </c>
+      <c r="B5" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="20">
+        <v>55</v>
+      </c>
+      <c r="B6" s="34">
         <v>1823850</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="19">
+        <v>56</v>
+      </c>
+      <c r="B7" s="33">
         <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="20">
+        <v>57</v>
+      </c>
+      <c r="B8" s="34">
         <v>5038</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="21">
+        <v>58</v>
+      </c>
+      <c r="B9" s="33">
         <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="21">
+        <v>59</v>
+      </c>
+      <c r="B10" s="34">
         <v>27397636</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="21">
+        <v>60</v>
+      </c>
+      <c r="B11" s="34">
         <v>10166288</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="21">
+        <v>61</v>
+      </c>
+      <c r="B12" s="34">
         <v>17231348</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2818,7 +2832,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="23">
         <v>3282</v>
@@ -2843,7 +2857,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="23">
         <v>9494</v>
@@ -2868,7 +2882,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="23">
         <v>8441</v>
@@ -2893,7 +2907,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="23">
         <v>40749</v>
@@ -2918,7 +2932,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="23">
         <v>35421</v>
@@ -2943,7 +2957,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="23">
         <v>35073</v>
@@ -2968,7 +2982,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="23">
         <v>24659</v>
@@ -2993,7 +3007,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="23">
         <v>12275</v>
@@ -3018,7 +3032,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="23">
         <v>42068</v>
@@ -3043,7 +3057,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="23">
         <v>35025</v>
@@ -3068,7 +3082,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="23">
         <v>35746</v>
@@ -3093,7 +3107,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="23">
         <v>25879</v>
@@ -3118,7 +3132,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="25">
         <v>308112</v>
@@ -3148,10 +3162,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3161,7 +3178,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B1" s="26">
         <v>2015</v>
@@ -3181,7 +3198,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B2" s="27">
         <v>1424</v>
@@ -3196,12 +3213,12 @@
         <v>1453</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B3" s="28">
         <v>221</v>
@@ -3216,12 +3233,12 @@
         <v>221</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" s="28">
         <v>611</v>
@@ -3241,7 +3258,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B5" s="28">
         <v>186</v>
@@ -3261,7 +3278,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B6" s="28">
         <v>202</v>
@@ -3281,7 +3298,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B7" s="28">
         <v>81</v>
@@ -3301,7 +3318,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B8" s="28">
         <v>123</v>
@@ -3328,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3337,12 +3354,12 @@
     <col min="2" max="2" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="29" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3355,10 +3372,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3371,10 +3388,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3387,10 +3404,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3403,10 +3420,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3419,10 +3436,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3435,10 +3452,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3451,10 +3468,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3467,10 +3484,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3483,10 +3500,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3499,10 +3516,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3515,10 +3532,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3531,10 +3548,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3547,7 +3564,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="32">
         <v>28550</v>
@@ -3570,7 +3587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -3579,15 +3598,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3595,7 +3614,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3603,7 +3622,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3611,7 +3630,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -3619,7 +3638,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>45</v>
@@ -3627,7 +3646,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>44</v>
@@ -3635,7 +3654,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -3643,7 +3662,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>72</v>
@@ -3651,7 +3670,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>48</v>
@@ -3659,7 +3678,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>22</v>
@@ -3667,7 +3686,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -3675,7 +3694,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3683,7 +3702,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B13)</f>
